--- a/pred_ohlcv/54_21/2019-10-27 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 VET ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>-305718.3195000002</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>174021.1288999999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>174021.1288999999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>174021.1288999999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>174021.1288999999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>207238.0401999999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>179127.6606999999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>196903.5101999999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>196903.5101999999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>196903.5101999999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>211276.7089999999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1889755.8856</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1702952.7475</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1761964.4579</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1789022.1533</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1789022.1533</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1849726.4926</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1797791.0921</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1901110.3098</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1901110.3098</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1961949.8057</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>10363.2958000002</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-323644.0165999999</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-286644.0165999999</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-160284.0165999999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>58715.98340000014</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>330309.1652000002</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>330321.7940000002</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>344536.3081000001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>344549.4331000001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>190281.0222000002</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>190381.0222000002</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>190381.0222000002</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>190381.0222000002</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>190381.0222000002</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>439082.3564000002</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>439082.3564000002</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>439082.3564000002</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>439082.3564000002</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>449082.3564000002</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>469082.3564000002</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>469082.3564000002</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>469082.3564000002</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>469082.3564000002</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>458693.1275000002</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>342978.1276000002</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>360804.1276000002</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>360804.1276000002</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>360804.1276000002</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>360404.1276000002</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>488404.1276000002</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>488404.1276000002</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>549903.3921000002</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>549903.3921000002</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>629945.9175000002</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>629945.9175000002</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>629945.9175000002</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>391380.7035000002</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>451100.7035000002</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>451000.7035000002</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>353189.4352000002</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>355364.2952000002</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>370141.5134000002</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>370141.5134000002</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>490141.5134000002</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>490141.5134000002</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>387131.8142851677</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>640767.5305851677</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>623989.0026851677</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>643989.0026851677</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>643989.0026851677</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-27 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 VET ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>-305718.3195000002</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>174021.1288999999</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>174021.1288999999</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>174021.1288999999</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>174021.1288999999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>207238.0401999999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>179127.6606999999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>196903.5101999999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>196903.5101999999</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>196903.5101999999</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>211276.7089999999</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1889755.8856</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1702952.7475</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1961949.8057</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>10363.2958000002</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-8854.318999999803</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-323644.0165999999</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-286644.0165999999</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-160284.0165999999</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>58715.98340000014</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>330309.1652000002</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>330321.7940000002</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>344536.3081000001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>344549.4331000001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>190281.0222000002</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>190381.0222000002</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>190381.0222000002</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>190381.0222000002</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>190381.0222000002</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>439082.3564000002</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>439082.3564000002</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>439082.3564000002</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>439082.3564000002</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>449082.3564000002</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>469082.3564000002</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>469082.3564000002</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>469082.3564000002</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>469082.3564000002</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>458693.1275000002</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>342978.1276000002</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>360804.1276000002</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>360804.1276000002</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>360804.1276000002</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>360404.1276000002</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>488404.1276000002</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>488404.1276000002</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>549903.3921000002</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>549903.3921000002</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>629945.9175000002</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>629945.9175000002</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>629945.9175000002</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>391380.7035000002</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>451100.7035000002</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>451000.7035000002</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>353189.4352000002</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>355364.4952000002</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>346360.2952000002</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>355364.2952000002</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>355364.2952000002</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>370141.5134000002</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>370141.5134000002</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>370141.5134000002</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>370141.5134000002</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>490141.5134000002</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>490141.5134000002</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>490141.5134000002</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>387131.8142851677</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>514339.7278851677</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>640767.5305851677</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>623989.0026851677</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>643989.0026851677</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>643989.0026851677</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
